--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="460" windowWidth="18820" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="9760" yWindow="460" windowWidth="18820" windowHeight="16800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>s1-c-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +82,37 @@
     <rPh sb="0" eb="1">
       <t>sheng xia</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">load </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1-b-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2-c-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2-c-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1-C-1</t>
+  </si>
+  <si>
+    <t>S1-B-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -452,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="C12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -999,4 +1031,500 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>7.2</v>
+      </c>
+      <c r="C2">
+        <v>32.6</v>
+      </c>
+      <c r="D2">
+        <f>$C2+(D1-1)*$C2*2</f>
+        <v>32.6</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:I2" si="0">$C2+(E1-1)*$C2*2</f>
+        <v>97.800000000000011</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>228.20000000000002</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>293.40000000000003</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>358.6</v>
+      </c>
+      <c r="J2">
+        <f>$C2+(J1-1)*$C2*2</f>
+        <v>423.80000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>28.8</v>
+      </c>
+      <c r="D3">
+        <f>$C3+(D1-1)*$C3*2</f>
+        <v>28.8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:I3" si="1">$C3+(E1-1)*$C3*2</f>
+        <v>86.4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>259.2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>316.8</v>
+      </c>
+      <c r="J3">
+        <f>$C3+(J1-1)*$C3*2</f>
+        <v>374.40000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>6.3</v>
+      </c>
+      <c r="C4">
+        <v>28.8</v>
+      </c>
+      <c r="D4">
+        <f>$C4+(D1-1)*$C4*2</f>
+        <v>28.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:I4" si="2">$C4+(E1-1)*$C4*2</f>
+        <v>86.4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>259.2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>316.8</v>
+      </c>
+      <c r="J4">
+        <f>$C4+(J1-1)*$C4*2</f>
+        <v>374.40000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>6.3</v>
+      </c>
+      <c r="C5">
+        <v>28.8</v>
+      </c>
+      <c r="D5">
+        <f>$C5+(D1-1)*$C5*2</f>
+        <v>28.8</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:I5" si="3">$C5+(E1-1)*$C5*2</f>
+        <v>86.4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>259.2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>316.8</v>
+      </c>
+      <c r="J5">
+        <f>$C5+(J1-1)*$C5*2</f>
+        <v>374.40000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>21.6</v>
+      </c>
+      <c r="C6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>28.8</v>
+      </c>
+      <c r="D8">
+        <v>32.6</v>
+      </c>
+      <c r="E8">
+        <v>86.4</v>
+      </c>
+      <c r="F8">
+        <v>97.800000000000011</v>
+      </c>
+      <c r="G8">
+        <v>144</v>
+      </c>
+      <c r="H8">
+        <v>163</v>
+      </c>
+      <c r="I8">
+        <v>201.60000000000002</v>
+      </c>
+      <c r="J8">
+        <v>228.20000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>21.6</v>
+      </c>
+      <c r="D9">
+        <v>28.8</v>
+      </c>
+      <c r="E9">
+        <v>50.4</v>
+      </c>
+      <c r="F9">
+        <v>57.6</v>
+      </c>
+      <c r="G9">
+        <v>86.4</v>
+      </c>
+      <c r="H9">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D12">
+        <v>6.3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>28.8</v>
+      </c>
+      <c r="G12">
+        <f>F12-D12</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>28.8</v>
+      </c>
+      <c r="G13">
+        <f>G12-D13</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>42.3</v>
+      </c>
+      <c r="D14">
+        <v>5.8</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>28.8</v>
+      </c>
+      <c r="G14">
+        <f>G13-D14</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>45.7</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>28.8</v>
+      </c>
+      <c r="G15">
+        <f>G14-D15</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>49.1</v>
+      </c>
+      <c r="D16">
+        <v>5.4</v>
+      </c>
+      <c r="E16">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F16">
+        <v>28.8</v>
+      </c>
+      <c r="G16">
+        <f>21.6-0.7</f>
+        <v>20.900000000000002</v>
+      </c>
+      <c r="H16">
+        <v>86.4</v>
+      </c>
+      <c r="I16">
+        <v>50.4</v>
+      </c>
+      <c r="J16">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>52.2</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F17">
+        <v>28.8</v>
+      </c>
+      <c r="G17">
+        <f>G16-D17</f>
+        <v>11.900000000000002</v>
+      </c>
+      <c r="J17">
+        <f>H16-C17</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>61.2</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>25.2</v>
+      </c>
+      <c r="F18">
+        <v>28.8</v>
+      </c>
+      <c r="G18">
+        <f>G17-D18</f>
+        <v>2.9000000000000021</v>
+      </c>
+      <c r="J18">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>100.8</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I21">
+        <f>21.6-0.7</f>
+        <v>20.900000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <f>11.7+6.3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <f>27+6.3+7.2</f>
+        <v>40.5</v>
+      </c>
+      <c r="E27">
+        <f>D26-D27</f>
+        <v>58.5</v>
+      </c>
+      <c r="F27">
+        <f>E27-D27</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>7.2</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <v>31.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>